--- a/web/uploads/inventory/BocconciniInventory.xlsx
+++ b/web/uploads/inventory/BocconciniInventory.xlsx
@@ -9,14 +9,17 @@
   <sheets>
     <sheet name="Inventario" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Código</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Código Interno</t>
+  </si>
+  <si>
+    <t>Código Único</t>
   </si>
   <si>
     <t>Nombre</t>
@@ -63,10 +66,10 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -388,139 +391,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="B2">
+        <v>1020</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
         <v>10000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>15000</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>10000</v>
+      <c r="B3">
+        <v>1021</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
       </c>
       <c r="E3">
+        <v>10100</v>
+      </c>
+      <c r="F3">
         <v>30000</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>10000</v>
+      <c r="B4">
+        <v>1022</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
       </c>
       <c r="E4">
+        <v>10200</v>
+      </c>
+      <c r="F4">
         <v>25000</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1">
-        <v>10000</v>
+      <c r="B5">
+        <v>1023</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
       </c>
       <c r="E5">
+        <v>10300</v>
+      </c>
+      <c r="F5">
         <v>12000</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1">
-        <v>10000</v>
+      <c r="B6">
+        <v>1024</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
       </c>
       <c r="E6">
+        <v>10400</v>
+      </c>
+      <c r="F6">
         <v>15000</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1">
-        <v>10000</v>
+      <c r="B7">
+        <v>1025</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>200</v>
+        <v>10500</v>
+      </c>
+      <c r="F7">
+        <v>11500</v>
       </c>
     </row>
   </sheetData>
